--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-0.002809973151882232</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.546598863649847</v>
+        <v>-2.472250294764594</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.08317360361069007</v>
+        <v>-0.05688543773387895</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2141140884196847</v>
+        <v>0.1854664848279651</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>0.02516130121495843</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.755686510556518</v>
+        <v>-2.66522266086786</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1296732152099503</v>
+        <v>-0.1115379578727734</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2680263641764883</v>
+        <v>0.2395101649129505</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>0.06097081659800258</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.052248558685711</v>
+        <v>-2.947485728018739</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2410004220936477</v>
+        <v>-0.2018886538343855</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2801272427539396</v>
+        <v>0.2546348030866737</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.1000958342570315</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.27809974774815</v>
+        <v>-3.159300744759228</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3292019272654422</v>
+        <v>-0.2896696651559982</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2975777375364804</v>
+        <v>0.2623161160929444</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.1409514523096937</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.325969614480728</v>
+        <v>-3.213524010759395</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3795750464498832</v>
+        <v>-0.3432417497076202</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3280226603281086</v>
+        <v>0.2950985758781174</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.1814781276990384</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.113574228624103</v>
+        <v>-2.996209722884499</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4530081651821362</v>
+        <v>-0.3962517157442423</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3280547813861086</v>
+        <v>0.2927785594616635</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.2207146355087604</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.759884878841926</v>
+        <v>-2.639022827900549</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.5562773666521085</v>
+        <v>-0.5010028660264869</v>
       </c>
       <c r="G8" t="n">
-        <v>0.3050780045794784</v>
+        <v>0.282327535226939</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.2626532127432246</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.332933965978177</v>
+        <v>-2.211200996350573</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.5556714466943814</v>
+        <v>-0.5036324126382136</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2989180616839346</v>
+        <v>0.2835700361523024</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.3158903246677062</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.946954192617462</v>
+        <v>-1.834072764540993</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6415105940550856</v>
+        <v>-0.5700631407264685</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3138514335577487</v>
+        <v>0.2986742336527529</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.3888490009394465</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.435607389930872</v>
+        <v>-1.327109756247356</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7809627073139572</v>
+        <v>-0.7112643915982487</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3239170050964734</v>
+        <v>0.3138704141829306</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.4891615374590997</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.9025613525171973</v>
+        <v>-0.769869261919233</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9397429372002782</v>
+        <v>-0.8803978224972032</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3661459760298256</v>
+        <v>0.3609598852109179</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.620748034204825</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4103075987154204</v>
+        <v>-0.2605241851652788</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.258962011604193</v>
+        <v>-1.177380364476578</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3991386827400895</v>
+        <v>0.3966551409374538</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.7821121709832671</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1966927945989621</v>
+        <v>0.3367011861804699</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.689138900724804</v>
+        <v>-1.604202063084282</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4963297040076088</v>
+        <v>0.4925642399811553</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.9682059635196842</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8153808728810686</v>
+        <v>0.9509215173043959</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.090163739638287</v>
+        <v>-1.999151641891494</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5725690351705884</v>
+        <v>0.580571558756859</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>1.17076344583804</v>
       </c>
       <c r="E16" t="n">
-        <v>1.294443092181486</v>
+        <v>1.445451486079899</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.487137675123545</v>
+        <v>-2.381675481421027</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6862834206829215</v>
+        <v>0.7023103685768263</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>1.378988485569052</v>
       </c>
       <c r="E17" t="n">
-        <v>1.847290301804064</v>
+        <v>1.981116849768665</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.843753691303949</v>
+        <v>-2.738443342602886</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8039121951269809</v>
+        <v>0.8166000130369774</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>1.591056445400074</v>
       </c>
       <c r="E18" t="n">
-        <v>2.261578947599407</v>
+        <v>2.388189937898737</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.175259800416905</v>
+        <v>-3.084886473709884</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9311159649512194</v>
+        <v>0.9530794683827589</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>1.814068132788702</v>
       </c>
       <c r="E19" t="n">
-        <v>2.714472724966468</v>
+        <v>2.833368821153436</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.445154800189696</v>
+        <v>-3.35789794613272</v>
       </c>
       <c r="G19" t="n">
-        <v>1.104755104258718</v>
+        <v>1.132370453850165</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>2.050020825587015</v>
       </c>
       <c r="E20" t="n">
-        <v>3.038961112930472</v>
+        <v>3.14240114002708</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.711924567023897</v>
+        <v>-3.628908422646965</v>
       </c>
       <c r="G20" t="n">
-        <v>1.241117755757227</v>
+        <v>1.274528036221491</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>2.291844326131494</v>
       </c>
       <c r="E21" t="n">
-        <v>3.373355927191291</v>
+        <v>3.485919794807988</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.936667579585337</v>
+        <v>-3.85545897474495</v>
       </c>
       <c r="G21" t="n">
-        <v>1.361251972725286</v>
+        <v>1.39379498462355</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>2.526306195597892</v>
       </c>
       <c r="E22" t="n">
-        <v>3.694763613683477</v>
+        <v>3.803905128575084</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.101593881910338</v>
+        <v>-4.028100901206358</v>
       </c>
       <c r="G22" t="n">
-        <v>1.423740570968087</v>
+        <v>1.466610503013348</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>2.7366079613015</v>
       </c>
       <c r="E23" t="n">
-        <v>3.906207778208875</v>
+        <v>3.998952953039578</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.201809392798175</v>
+        <v>-4.146552412749644</v>
       </c>
       <c r="G23" t="n">
-        <v>1.515735281080062</v>
+        <v>1.548338154950054</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>2.909964219857001</v>
       </c>
       <c r="E24" t="n">
-        <v>4.061739401092924</v>
+        <v>4.160603637472625</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.253277548050797</v>
+        <v>-4.20858109584381</v>
       </c>
       <c r="G24" t="n">
-        <v>1.565108267322231</v>
+        <v>1.600604956508403</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>3.04117911678197</v>
       </c>
       <c r="E25" t="n">
-        <v>4.165087445159806</v>
+        <v>4.251964686713146</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.275499479994428</v>
+        <v>-4.243928130100664</v>
       </c>
       <c r="G25" t="n">
-        <v>1.579194811303318</v>
+        <v>1.615801137038581</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>3.128959371159295</v>
       </c>
       <c r="E26" t="n">
-        <v>4.194774602992252</v>
+        <v>4.281418236851047</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.178017909156818</v>
+        <v>-4.167074118691412</v>
       </c>
       <c r="G26" t="n">
-        <v>1.524210860247788</v>
+        <v>1.573741531683774</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>3.172633565030281</v>
       </c>
       <c r="E27" t="n">
-        <v>4.143335648701448</v>
+        <v>4.242849606481603</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.101344943710838</v>
+        <v>-4.099597996170066</v>
       </c>
       <c r="G27" t="n">
-        <v>1.503482557501157</v>
+        <v>1.547051852581963</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>3.175470448265517</v>
       </c>
       <c r="E28" t="n">
-        <v>4.099258256885005</v>
+        <v>4.192531969124617</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.932545863824702</v>
+        <v>-3.937320221081973</v>
       </c>
       <c r="G28" t="n">
-        <v>1.402943645961184</v>
+        <v>1.465087672854531</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>3.141368893833335</v>
       </c>
       <c r="E29" t="n">
-        <v>3.940926261762593</v>
+        <v>4.032122325568841</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.761934134233702</v>
+        <v>-3.769910376954337</v>
       </c>
       <c r="G29" t="n">
-        <v>1.302055782927483</v>
+        <v>1.36088842075065</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>3.073808121594083</v>
       </c>
       <c r="E30" t="n">
-        <v>3.835615913061531</v>
+        <v>3.929040010254505</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.601067495625473</v>
+        <v>-3.61116956836647</v>
       </c>
       <c r="G30" t="n">
-        <v>1.208530942416236</v>
+        <v>1.273018346495491</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>2.975912702664327</v>
       </c>
       <c r="E31" t="n">
-        <v>3.68610698855248</v>
+        <v>3.76962611949673</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.443549477313742</v>
+        <v>-3.461174447843147</v>
       </c>
       <c r="G31" t="n">
-        <v>1.10702401899199</v>
+        <v>1.179127033913425</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>2.853242452192326</v>
       </c>
       <c r="E32" t="n">
-        <v>3.532271941550067</v>
+        <v>3.604434818443229</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.239541337715342</v>
+        <v>-3.279414521054014</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9885133755010221</v>
+        <v>1.059670279259548</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>2.709940184980295</v>
       </c>
       <c r="E33" t="n">
-        <v>3.349148329844025</v>
+        <v>3.424565653931823</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.091293164732791</v>
+        <v>-3.139966057915369</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9412355582693076</v>
+        <v>1.004851313638291</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>2.552368018485671</v>
       </c>
       <c r="E34" t="n">
-        <v>3.166011577705165</v>
+        <v>3.220126800146605</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.083023452345885</v>
+        <v>-3.117625862076375</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8468332288554239</v>
+        <v>0.907295280348044</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>2.387236068678001</v>
       </c>
       <c r="E35" t="n">
-        <v>2.880852505165969</v>
+        <v>2.911373350458324</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.968416977450006</v>
+        <v>-3.003107720089997</v>
       </c>
       <c r="G35" t="n">
-        <v>0.7979216178099824</v>
+        <v>0.8571878899161484</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>2.220766401966385</v>
       </c>
       <c r="E36" t="n">
-        <v>2.589961283821865</v>
+        <v>2.631341966814399</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.909090843372113</v>
+        <v>-2.946589258490921</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7369616899183624</v>
+        <v>0.7870997413601671</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>2.056262415080017</v>
       </c>
       <c r="E37" t="n">
-        <v>2.322772483185573</v>
+        <v>2.364646662432834</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.846900094939857</v>
+        <v>-2.881360149981484</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6971198976136459</v>
+        <v>0.7337758649839996</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.89805229304846</v>
       </c>
       <c r="E38" t="n">
-        <v>2.011907803957838</v>
+        <v>2.056763401406736</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.77333119173515</v>
+        <v>-2.807317461171277</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6215799294862115</v>
+        <v>0.6580329501719291</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.748350849059544</v>
       </c>
       <c r="E39" t="n">
-        <v>1.73090694838155</v>
+        <v>1.765882400399268</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.642772961422048</v>
+        <v>-2.685261090891537</v>
       </c>
       <c r="G39" t="n">
-        <v>0.598769598161945</v>
+        <v>0.6298043803823004</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.607291159715643</v>
       </c>
       <c r="E40" t="n">
-        <v>1.504111838228338</v>
+        <v>1.51897658784188</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.525874941047489</v>
+        <v>-2.569423065430977</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5258124551073282</v>
+        <v>0.5571815883405016</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.475948940576129</v>
       </c>
       <c r="E41" t="n">
-        <v>1.248823889581043</v>
+        <v>1.2756989947904</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.411818174257837</v>
+        <v>-2.456451114372871</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4630785687852542</v>
+        <v>0.4923496129117917</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.35433636690181</v>
       </c>
       <c r="E42" t="n">
-        <v>1.035597006336646</v>
+        <v>1.05522151272655</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.289448623662598</v>
+        <v>-2.338114946628767</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4004410456371801</v>
+        <v>0.4241040450465374</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.24045104396296</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8347951323458817</v>
+        <v>0.8500234339340593</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.191902810708987</v>
+        <v>-2.235494736535203</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3473376365227398</v>
+        <v>0.3653750706378259</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.133696487724451</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6742511643657429</v>
+        <v>0.6857928445243762</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.125823954210642</v>
+        <v>-2.172357876940038</v>
       </c>
       <c r="G44" t="n">
-        <v>0.2541252463029466</v>
+        <v>0.2744184547184866</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.033220839331985</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4951879464005183</v>
+        <v>0.5062069293426062</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.016278736021898</v>
+        <v>-2.066464969050703</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2209982151683192</v>
+        <v>0.2411308182938592</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.9382328863657668</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3229723539816554</v>
+        <v>0.336731847190379</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.943743546865554</v>
+        <v>-1.993758954267723</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1926411611466904</v>
+        <v>0.2172940731616838</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.8476093802019172</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1510911125756107</v>
+        <v>0.1563545859433365</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.879538662091889</v>
+        <v>-1.93772011846651</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1271054425381626</v>
+        <v>0.146032045940612</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.7624853628709459</v>
       </c>
       <c r="E48" t="n">
-        <v>0.03279655620209697</v>
+        <v>0.03498078814609638</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.83247839202572</v>
+        <v>-1.879600714135753</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1132291454821663</v>
+        <v>0.1325558020615247</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.6823815821809012</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1018344782605941</v>
+        <v>-0.09510803670577778</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.752989723836424</v>
+        <v>-1.807591142292136</v>
       </c>
       <c r="G49" t="n">
-        <v>0.06051118906372589</v>
+        <v>0.08164100503535658</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.6077637620641576</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2039517017868395</v>
+        <v>-0.2035399682252032</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.729354465340794</v>
+        <v>-1.780806560064416</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02120961455264554</v>
+        <v>0.04354251015118499</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.5399712849272632</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3114667231051742</v>
+        <v>-0.3206110042985354</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.674335473131081</v>
+        <v>-1.73019983318543</v>
       </c>
       <c r="G51" t="n">
-        <v>0.01612280700391963</v>
+        <v>0.04012161747418591</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4791222689367177</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3686787075474316</v>
+        <v>-0.3720484985412489</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.66925596582281</v>
+        <v>-1.724461844188159</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04295073875424633</v>
+        <v>-0.02248816476016091</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.4255905419500755</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4765850217541299</v>
+        <v>-0.4746986396206758</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.660705924202448</v>
+        <v>-1.716733809642979</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04405599515906421</v>
+        <v>-0.02770491658897769</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3801445718605476</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5218698733417541</v>
+        <v>-0.5028352263805774</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.65039360453636</v>
+        <v>-1.698620453027165</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.07932783693923656</v>
+        <v>-0.06108453604333237</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3419974560647059</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6467346461243569</v>
+        <v>-0.6242396851877267</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.636869179070273</v>
+        <v>-1.679242694764625</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.1005715366619581</v>
+        <v>-0.08835093414105231</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3101981671095171</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7268693855938808</v>
+        <v>-0.7060344993366138</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.602485046529373</v>
+        <v>-1.637057525274</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1253514728608606</v>
+        <v>-0.1074936246609563</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.2844472837416339</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8609222410125721</v>
+        <v>-0.8370854958803967</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.639409662748454</v>
+        <v>-1.678525811151989</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1268772231158602</v>
+        <v>-0.1074600435548654</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2639407862288486</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9321025055405531</v>
+        <v>-0.9067940319327417</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.617305994700187</v>
+        <v>-1.64494616510918</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1640777884241229</v>
+        <v>-0.1514717332072172</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.2475796616241803</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.046983469477522</v>
+        <v>-1.025164510806983</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.627156939169548</v>
+        <v>-1.655360688141632</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1903776346856613</v>
+        <v>-0.174598894967211</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.2349939403965535</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.089389106229874</v>
+        <v>-1.058490108481974</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.622616189606822</v>
+        <v>-1.656880598204268</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2023398086944763</v>
+        <v>-0.1896198697264797</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.2246921347780295</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.173385672899852</v>
+        <v>-1.14282248621286</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.6716825657499</v>
+        <v>-1.695675536027803</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2635406445210962</v>
+        <v>-0.243234295672738</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.215451046316</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.22409168304902</v>
+        <v>-1.195784270662482</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.674935552896444</v>
+        <v>-1.696452281612166</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.306176968871812</v>
+        <v>-0.2902157231419981</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.2067781403113997</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.283465998713913</v>
+        <v>-1.268777914919372</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.72309815927125</v>
+        <v>-1.74956153091897</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3251488337650796</v>
+        <v>-0.3089861013987203</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.1975558597575092</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.34827607342126</v>
+        <v>-1.341205060516989</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.751725322189697</v>
+        <v>-1.778546405619689</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3720864597916125</v>
+        <v>-0.357350194410071</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.1875984301599469</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.363777404002437</v>
+        <v>-1.366840584897164</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.836727131970265</v>
+        <v>-1.861572770333258</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3680289861469772</v>
+        <v>-0.3564011631509804</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.1767008029321928</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.38820400856334</v>
+        <v>-1.391110964312339</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.953009742074506</v>
+        <v>-1.967585402166048</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3976796427771511</v>
+        <v>-0.3868022844998812</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.1650471351821449</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.426673355662602</v>
+        <v>-1.430432979496692</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.022600014231487</v>
+        <v>-2.040426471397437</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3709052808860673</v>
+        <v>-0.3605024382383429</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.1526604264916452</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.45326083139805</v>
+        <v>-1.460108456944411</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.137931403004502</v>
+        <v>-2.148951845994681</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4408211437673213</v>
+        <v>-0.4260746580491435</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.1398033727654285</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.446408825707415</v>
+        <v>-1.457277423696139</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.285618917520144</v>
+        <v>-2.29503549768246</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4614852043979521</v>
+        <v>-0.4417555745455028</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.126742929940231</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.474119078424771</v>
+        <v>-1.473337952696135</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.417610915058518</v>
+        <v>-2.418062799942654</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4772770845492206</v>
+        <v>-0.4576715587844986</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.1135829869624041</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.512757791102579</v>
+        <v>-1.51351409601367</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.593780317707561</v>
+        <v>-2.57764678630302</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5357885117923867</v>
+        <v>-0.5176240534933916</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.1010651428473911</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.521399815752668</v>
+        <v>-1.519300266597941</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.692201429491671</v>
+        <v>-2.669983877692314</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5544961079811999</v>
+        <v>-0.5342145799503871</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.08998457392577347</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.505742260025763</v>
+        <v>-1.504133287029581</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.821141196496</v>
+        <v>-2.789363979821418</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.570501155153741</v>
+        <v>-0.53712737589175</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.08090150573733357</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.562154138114202</v>
+        <v>-1.554207096355386</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.962432240325371</v>
+        <v>-2.919444774408792</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5822895834397379</v>
+        <v>-0.5433705415284756</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.07447706128837907</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.441866616096598</v>
+        <v>-1.435131414253236</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.029941943952808</v>
+        <v>-2.981227439399639</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6178636551747283</v>
+        <v>-0.5803506395750111</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.07047257795865219</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.337467337404262</v>
+        <v>-1.32229597769163</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.095072499216108</v>
+        <v>-3.038599299107851</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6078097640207311</v>
+        <v>-0.5717567965119225</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.06903106097240908</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.228068854048655</v>
+        <v>-1.212824491931478</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.175921932226133</v>
+        <v>-3.115703708764694</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5853994858733734</v>
+        <v>-0.5384560196544769</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.07008434399488575</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.096487860047872</v>
+        <v>-1.07122610797897</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.238986519440797</v>
+        <v>-3.166586384732862</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5981194248413699</v>
+        <v>-0.5504707553945646</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.07380909405520913</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8953720757175629</v>
+        <v>-0.8667507529914796</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.306745891291779</v>
+        <v>-3.23086938207939</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5947072924529163</v>
+        <v>-0.5506839224158373</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.08071825298704161</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6882890748397094</v>
+        <v>-0.6538845016255368</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.352335162906358</v>
+        <v>-3.260887970828473</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5608443970804708</v>
+        <v>-0.509669711494121</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.09091547135842971</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.432671155323869</v>
+        <v>-0.4045929704876038</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.402860127092253</v>
+        <v>-3.301328382850462</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5218800936783905</v>
+        <v>-0.4735714824944943</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.1045469938350575</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.175670570265938</v>
+        <v>-0.1286176004402233</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.351917589152358</v>
+        <v>-3.243600271408069</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4783137186937658</v>
+        <v>-0.4390501054330491</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.1213950019169079</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1173231203290743</v>
+        <v>0.1497770692937928</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.351989131508812</v>
+        <v>-3.228708510904845</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4590819652403164</v>
+        <v>-0.4197278289979633</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.141464568387476</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4420144549777144</v>
+        <v>0.4781243643620683</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.298660874988372</v>
+        <v>-3.178401093884495</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4122991043114199</v>
+        <v>-0.3724383313815215</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.1635553863504498</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7272815710756377</v>
+        <v>0.7494407209513591</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.224707979135756</v>
+        <v>-3.07894334795584</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3701212350612494</v>
+        <v>-0.3312328541598962</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.187205171279291</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9855158967703866</v>
+        <v>1.010320653786835</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.145003223829004</v>
+        <v>-2.983624838364911</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2926700639828156</v>
+        <v>-0.2536648792341897</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2107888503369781</v>
       </c>
       <c r="E87" t="n">
-        <v>1.174698708053699</v>
+        <v>1.199515145454875</v>
       </c>
       <c r="F87" t="n">
-        <v>-3.032928472322762</v>
+        <v>-2.857005087777036</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2583224326441885</v>
+        <v>-0.220206417182926</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2323665790502431</v>
       </c>
       <c r="E88" t="n">
-        <v>1.345782763202108</v>
+        <v>1.36582192324983</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.803384821638414</v>
+        <v>-2.625201282647962</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2563484476252799</v>
+        <v>-0.2171957980194723</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.249578739783584</v>
       </c>
       <c r="E89" t="n">
-        <v>1.484301905730889</v>
+        <v>1.510127236362882</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.567708238948205</v>
+        <v>-2.390153250660889</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1837285756796631</v>
+        <v>-0.1484231527933998</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2594840569460568</v>
       </c>
       <c r="E90" t="n">
-        <v>1.614122081734036</v>
+        <v>1.627098989166033</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.281392808321009</v>
+        <v>-2.10898229948201</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1718729851814844</v>
+        <v>-0.1471996324932183</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.259760841575263</v>
       </c>
       <c r="E91" t="n">
-        <v>1.653506878986298</v>
+        <v>1.67743414710011</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.991485659390178</v>
+        <v>-1.822593136426223</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1011847568601398</v>
+        <v>-0.08649083287323463</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.2475791943703499</v>
       </c>
       <c r="E92" t="n">
-        <v>1.616218710792581</v>
+        <v>1.651402949687299</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.625010668475912</v>
+        <v>-1.478328397070861</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1127132965859549</v>
+        <v>-0.09854791000795866</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.2211280762411376</v>
       </c>
       <c r="E93" t="n">
-        <v>1.645688321459482</v>
+        <v>1.682050819163563</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.280458299646641</v>
+        <v>-1.143552510258314</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1418135150858561</v>
+        <v>-0.1259851337323149</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.179975399013585</v>
       </c>
       <c r="E94" t="n">
-        <v>1.592168798639133</v>
+        <v>1.645545236746573</v>
       </c>
       <c r="F94" t="n">
-        <v>-1.019559386185984</v>
+        <v>-0.9098250917694681</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1448372746821281</v>
+        <v>-0.1289650918858596</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1257170573863889</v>
       </c>
       <c r="E95" t="n">
-        <v>1.58528759198668</v>
+        <v>1.639750305873756</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.7134486235422481</v>
+        <v>-0.6268940526169986</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2024609926860217</v>
+        <v>-0.1885379740911163</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.06222077311346479</v>
       </c>
       <c r="E96" t="n">
-        <v>1.483249211057344</v>
+        <v>1.552592735086961</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4211367754056902</v>
+        <v>-0.3603549733811611</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2260904109892881</v>
+        <v>-0.216048200220018</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.003887966140749976</v>
       </c>
       <c r="E97" t="n">
-        <v>1.360504428102741</v>
+        <v>1.431905159892449</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2078149890353839</v>
+        <v>-0.1765728799861195</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3331236164376229</v>
+        <v>-0.3141269307268099</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06732591411690005</v>
       </c>
       <c r="E98" t="n">
-        <v>1.290081928533941</v>
+        <v>1.350762987240198</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04151113133661035</v>
+        <v>-0.01867451914670739</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3410575177636208</v>
+        <v>-0.3120522023896286</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1235163463581135</v>
       </c>
       <c r="E99" t="n">
-        <v>1.134821874594801</v>
+        <v>1.206714642591145</v>
       </c>
       <c r="F99" t="n">
-        <v>0.07873112919017555</v>
+        <v>0.08764472278517316</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3531686166777085</v>
+        <v>-0.3259825212249885</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1714962684717262</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9657015841286647</v>
+        <v>1.04887468367537</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1788393265433305</v>
+        <v>0.1698541905918783</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3921825617148798</v>
+        <v>-0.3609083316076155</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.2101315411651264</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7956132817782557</v>
+        <v>0.897956812758592</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2275844921064083</v>
+        <v>0.2200185228993194</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3580188964357072</v>
+        <v>-0.3207000672320808</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.2459596857145925</v>
       </c>
       <c r="E102" t="n">
-        <v>0.6933150122887378</v>
+        <v>0.7902578253808027</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2452773548720399</v>
+        <v>0.2392999179878597</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.372509873737976</v>
+        <v>-0.3406428641058027</v>
       </c>
     </row>
   </sheetData>
